--- a/jeaf-generator-test-message-constants/src/test/resources/test-messages.xlsx
+++ b/jeaf-generator-test-message-constants/src/test/resources/test-messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\JEAF-Generator\trunk\jeaf-generator-test-message-constants\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\JEAF\jeaf-generator\jeaf-generator-test-message-constants\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB6C597-909C-4E13-888A-CFF202235379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCD1475-3844-4CDF-B843-0D26A0BEAA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{ADB42BFB-6EC0-410A-8CB1-9C298A092AA4}"/>
+    <workbookView xWindow="25590" yWindow="0" windowWidth="25605" windowHeight="21000" activeTab="1" xr2:uid="{ADB42BFB-6EC0-410A-8CB1-9C298A092AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Class-Info" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>Class-Info</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>LOCALIZED_STRING</t>
+  </si>
+  <si>
+    <t>« »</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1130,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,6 +1217,9 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
